--- a/config_4.6/by3dphb_config.xlsx
+++ b/config_4.6/by3dphb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_4.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>cpl_notcjj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达人榜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DPHBRightPanel_drb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BY3DPHBRightItemBase_drb</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -450,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -507,7 +519,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>29</v>
@@ -637,6 +649,29 @@
       </c>
       <c r="G8" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
